--- a/playW/lib/cases/云招聘测试用例.xlsx
+++ b/playW/lib/cases/云招聘测试用例.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="381" activeTab="1"/>
+    <workbookView windowWidth="13950" windowHeight="6630" tabRatio="381" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录模块" sheetId="1" r:id="rId1"/>
     <sheet name="招聘管理" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>分组信息</t>
   </si>
@@ -107,12 +107,15 @@
     <t>选择工种</t>
   </si>
   <si>
-    <t>select_option</t>
+    <t>"text=安费诺泰姆斯（常州）通讯设备有限公司"</t>
   </si>
   <si>
     <t>选择招聘类型</t>
   </si>
   <si>
+    <t>"li:has-text(\"保洁\")"</t>
+  </si>
+  <si>
     <t>输入工资下线</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
   </si>
   <si>
     <t>输入其他说明</t>
+  </si>
+  <si>
+    <t>断言是否添加成功</t>
   </si>
 </sst>
 </file>
@@ -130,12 +136,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,25 +150,112 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color rgb="FF252423"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,73 +270,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -253,7 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,38 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,192 +309,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -507,25 +503,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -570,12 +562,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -595,30 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,150 +620,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,34 +1145,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1"/>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1221,7 +1193,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1266,57 +1238,77 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="3:5">
+    <row r="9" spans="3:5">
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="3:4">
+    <row r="10" spans="3:5">
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="3:4">
+    <row r="11" spans="3:5">
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"FAIL,PASS"</formula1>
